--- a/biology/Médecine/Joseph-Alexandre_Auzias-Turenne/Joseph-Alexandre_Auzias-Turenne.xlsx
+++ b/biology/Médecine/Joseph-Alexandre_Auzias-Turenne/Joseph-Alexandre_Auzias-Turenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph-Alexandre Auzias-Turenne, né le 1er mars 1812 à Pertuis (Vaucluse) et mort le 27 mai 1870 à Paris[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph-Alexandre Auzias-Turenne, né le 1er mars 1812 à Pertuis (Vaucluse) et mort le 27 mai 1870 à Paris, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il prôna l'inoculation préventive de la syphilis[2], sur le modèle de la variolisation, et consacra sa vie à cette idée que la postérité n'a pas ratifiée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il prôna l'inoculation préventive de la syphilis, sur le modèle de la variolisation, et consacra sa vie à cette idée que la postérité n'a pas ratifiée.
 En 1859, avec Camille-Melchior Gibert, il prit part à une expérience controversée dans laquelle des patients humains furent délibérément infectés de syphilis en vue de prouver la nature infectieuse de la syphilis secondaire. 
-Il soutint une théorie de l'immunisation comme épuisement, chez le sujet, d'une substance nécessaire à l'agent infectieux[4]. Cette théorie, bien qu'adoptée[5] par Louis Pasteur[6], n'a pas, elle non plus, été ratifiée par la postérité.
-Il prôna l'utilisation des antagonismes microbiens à des fins thérapeutiques[7] (guérison de maladies comme le favus, l'éléphantiasis, le lupus et le cancer[2] ). Cette idée fut également défendue par Pasteur[8] et, cette fois, ratifiée par la postérité, mais ne fut mise en œuvre ni par Auzias-Turenne, ni par Pasteur.
+Il soutint une théorie de l'immunisation comme épuisement, chez le sujet, d'une substance nécessaire à l'agent infectieux. Cette théorie, bien qu'adoptée par Louis Pasteur, n'a pas, elle non plus, été ratifiée par la postérité.
+Il prôna l'utilisation des antagonismes microbiens à des fins thérapeutiques (guérison de maladies comme le favus, l'éléphantiasis, le lupus et le cancer ). Cette idée fut également défendue par Pasteur et, cette fois, ratifiée par la postérité, mais ne fut mise en œuvre ni par Auzias-Turenne, ni par Pasteur.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jenner et la vaccine, Paris : Imprimerie Divry et cie., 1862
 Questions, 1° Des causes des scrofules : 2° Des luxations, des causes qui les déterminent et de leur mécanisme : 3° Quelles sont les diverses substances qui entrent dans la composition du cervelet ? Quelle est leur situation respective et dans quelles propositions concourent-elles à la formation de l'organe ? : 4° Quelles sont les préparations dont l'aconit fait la base. Les décrire et les comparer entre elles, Paris : Imp. Rignoux, 1841
